--- a/dati/phasesweepRLC.xlsx
+++ b/dati/phasesweepRLC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iside\Desktop\circuiti labview\prova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simonevaligi\root\macros\circuiti\graph_V\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B05532-8977-42E7-9BBA-C8CEAB7A66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F520B48-AA20-4C97-A23E-F9CAE2D910C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17256" windowHeight="8880"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_109240" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,48 +513,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,8 +569,4316 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lvtemporary_109240!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitude - Plot 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lvtemporary_109240!$A$2:$A$573</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="572"/>
+                <c:pt idx="4">
+                  <c:v>400.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400.44099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600.15200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800.19399999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800.19500000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800.197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800.19500000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1200.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1200.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1400.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1600.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1800.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1800.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000.13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2000.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2200.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2200.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2200.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2400.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2600.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2800.14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2800.13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3000.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3200.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3200.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3400.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3600.14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3800.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3800.19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4000.24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4000.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4200.29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4400.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4600.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4600.21</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4600.21</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4800.26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4800.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5000.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5000.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5200.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5200.17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5400.21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5400.22</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5400.21</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5600.27</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5600.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5600.26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5600.26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5800.31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6000.18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6200.23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6200.23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6200.22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6400.27</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6400.28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6600.33</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6600.32</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6800.19</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7000.24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7200.28</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7200.29</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7400.33</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7400.34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7600.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7800.25</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8000.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8200.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8200.17</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8400.2099999999991</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8600.26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8800.31</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9000.17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9200.2199999999993</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9400.27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9400.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9600.31</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9600.32</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9800.19</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9800.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9800.19</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10000.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10200.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10400.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10600.2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10800.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>11000.3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11200.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11400.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11600.3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11800.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12000.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12200.2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12400.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12600.3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12800.4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13000.2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>13200.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>13400.3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13600.4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13800.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14000.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>14200.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14400.2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>14600.2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>14600.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>14600.2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>14800.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>15000.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15000.3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>15200.2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15400.3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>15600.3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>15800.4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>16000.2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>16200.3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16400.3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>16600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>16800.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>17000.3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>17200.3</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>17400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>17600.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>17800.3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>18000.3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>18200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>18400.3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>18600.3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>18800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>19000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>19200.3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>19400.3</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>19600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>19800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>20000.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>20200.3</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>20400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>20600.2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>20800.3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>21000.3</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>21200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>21400.3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>21600.3</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>21800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>22000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>22200.3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>22400.3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>22600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>22800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>23000.3</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>23200.3</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>23400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>23600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>23800.3</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>24000.3</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>24200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>24400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>24600.3</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>24800.3</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>25000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>25200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>25400.3</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>25600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>25800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>26000.5</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>26000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>26200.3</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>26400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>26600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>26800.3</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>27000.3</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>27200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>27400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>27600.3</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>27800.3</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>28000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>28200.5</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>28200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>28400.3</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>28600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>28800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>29000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>29000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>29000.5</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>29200.3</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>29400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>29600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>29800.5</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>30000.3</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>30200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>30400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>30600.5</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>30800.3</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>31000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>31200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>31400.5</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>31600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>31600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>31600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>31800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>32000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>32200.5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>32400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>32600.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>32800.5</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>33000.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>33200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>33400.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>33600.5</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>33800.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>34000.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>34200.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>34400.5</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>34600.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>34800.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lvtemporary_109240!$B$2:$B$573</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="572"/>
+                <c:pt idx="4">
+                  <c:v>-0.123949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.324602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.31495299999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.0386300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3685500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.170566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.47584E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2377700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.1553599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8797600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4526699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5481199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4694900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0072E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0489799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.80216E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8824699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3425599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27977299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3016700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4652599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1418000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7144100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1673400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0612200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9717600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.103258</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3791700000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4710700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0943299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0041400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1086499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2601599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4026000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4374199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2521399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.3092300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.8774399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0709700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10568900000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.06452E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.100464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7426200000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5102800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.131357</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.109073</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17190800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.177284</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.151536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15807499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.20743500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.3173199999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.133825</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.4725400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.5293999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.106535</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.123686</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.11928</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.196495</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19553799999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17124600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.20689299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.224776</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.209288</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.183365</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27207599999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.22398299999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.27081499999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.189085</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26743299999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26533499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.21199499999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.18287300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.24529300000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30290899999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.26882400000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29813200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.216364</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.228909</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.34982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.320492</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.230156</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.30830200000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.23604600000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.23697699999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.31625900000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.35198699999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.26300099999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.34377200000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.37114900000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.35291499999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.30393300000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.33772400000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.35171999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.36064299999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.38967000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.34720400000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.36221599999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.33554699999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.345472</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.35846699999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.35435499999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.267428</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.41473900000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.41018500000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.34445799999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.36611399999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.36170999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.41778199999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.37494499999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.45191300000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.36113200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.32795600000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.370392</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.44680700000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.40828399999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.36757699999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.40131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.38119900000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.453735</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.35210799999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.32111899999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.49230699999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.38964500000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.42085299999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.47527999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.47054600000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.44902199999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.52734199999999998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.41453200000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.38445800000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.41444500000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48953600000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.426178</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.39794000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.46341199999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.46212399999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.50713699999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.51425900000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.40472799999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.56194299999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.47461300000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.536497</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.53228399999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.52303699999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.42851800000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.514706</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.55741499999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.49878800000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.50580099999999995</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.47874499999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.50597000000000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.61652399999999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.44251000000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.62261999999999995</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.63744100000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.61496899999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.47849000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.58943199999999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.56852199999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.58252099999999996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.527474</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.58173900000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.64098299999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.63958099999999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.56359400000000004</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.58465400000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.49601299999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.51620299999999997</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.57018100000000005</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.62680599999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.53208599999999995</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.52096299999999995</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.70084100000000005</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.67874299999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.68700700000000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.54738900000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.59798799999999996</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.750749</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.72326199999999996</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.68930999999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.607823</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.66657500000000003</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.57850500000000005</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.64363400000000004</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.76685599999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.62744200000000006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.65970700000000004</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.60210300000000005</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.750197</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.78802700000000003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.78317599999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.68339499999999997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.69269199999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.75643800000000005</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.73897900000000005</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.80319499999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.56525199999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.75866900000000004</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.76910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.76154699999999997</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.79619700000000004</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.79778899999999997</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.85435700000000003</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.63761199999999996</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.69820700000000002</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.71745700000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.79637100000000005</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.81312799999999996</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.92342000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.76844500000000004</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.76932999999999996</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.65630599999999994</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.85667300000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.82899800000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.78956999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.886266</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.72682800000000003</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.69718599999999997</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.79962200000000005</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.75945300000000004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.90257200000000004</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.89367799999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.76488800000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.91696699999999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.724078</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.78511699999999995</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.77525599999999995</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.789524</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.77984500000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.81916800000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.76903600000000005</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.78555900000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.85611000000000004</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.94367800000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.86008300000000004</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.92293999999999998</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.77333600000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.793207</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.0147299999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.95363200000000004</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.790466</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.0286</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.0159199999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.88267300000000004</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.87891399999999997</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.79149000000000003</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.96384000000000003</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.99840700000000004</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.02007</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.86328000000000005</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.93610899999999997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.00637</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.00322</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.84559099999999998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.97357700000000003</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.0086999999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.88362300000000005</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.97005699999999995</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.83171700000000004</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.89046700000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.0611200000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.93897699999999995</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.95576499999999998</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.01627</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.93111999999999995</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.1555500000000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.0182800000000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.0582800000000001</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.04013</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.1088499999999999</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.95184000000000002</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.988676</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.0327599999999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.90907899999999997</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.1174500000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.11219</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.0784</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.15421</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.2224200000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.1655500000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.99710900000000002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.96871600000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.17073</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.0625100000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.05705</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.03139</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.0788599999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.1118600000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.0146999999999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.94580900000000001</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.1421600000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.17719</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.23031</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.98680800000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.1642399999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.0611999999999999</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.2492700000000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.27369</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.0883</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.0625500000000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.2605999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.14368</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.3088900000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.02003</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.2186900000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.2426600000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.0795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.07419</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.3907799999999999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.2511699999999999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.1261000000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.1039399999999999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.3155300000000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.23638</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.33402</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.1232599999999999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.1366799999999999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.1626799999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.1427400000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.18469</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.0938399999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.3551899999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1.2218199999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.12713</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.25823</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.2461899999999999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.36104</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.37019</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.4190100000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.1621699999999999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.2822100000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.35395</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.41211</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.35503</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.40615</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.31325</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.1444300000000001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.4261200000000001</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.14439</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.50667</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.21255</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.2600499999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.4539899999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.17197</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.48115</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.4382200000000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.2874699999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.3436399999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.3850199999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.2513000000000001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.33186</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.3375999999999999</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.17038</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.5182199999999999</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.21655</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.2133499999999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.5904499999999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.5814699999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.57562</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.4146300000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.6229499999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.4494</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.21549</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.4971099999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.4390099999999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.5222199999999999</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.53382</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.2138899999999999</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.56514</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.24905</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.5993200000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.4291499999999999</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.6415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.3453599999999999</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.32884</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.4356</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.3892500000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.33525</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.60989</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.70634</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.3580700000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.6582399999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.4999899999999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.66259</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.6313800000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7118899999999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.33796</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.3582700000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.5248200000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.58172</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.53257</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.43598</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.5220499999999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.5382499999999999</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.3876299999999999</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.6281399999999999</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.6958800000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.2903899999999999</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.6540600000000001</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.43631</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.5656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.3666199999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.7168000000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.8126599999999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.4765699999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.67933</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.51678</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.6829499999999999</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.4572700000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.7154700000000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.7664200000000001</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.4316</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.4651700000000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.42933</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.81097</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.72742</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.8074300000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.5379100000000001</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.5448299999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.71627</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.7379199999999999</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.47784</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.44275</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.7990200000000001</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.55582</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.50274</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.5877600000000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.9554100000000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.56619</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.5604499999999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.7800400000000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.5194000000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.5224599999999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.6122399999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.83823</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.8719699999999999</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.6403300000000001</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.63121</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.7964100000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.7021599999999999</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.6293899999999999</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.9004799999999999</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.9534</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.6395200000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.6832100000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.8073999999999999</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.7673300000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.93655</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.5439000000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.8947099999999999</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.78996</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.6133999999999999</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.71105</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.6862600000000001</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.7698100000000001</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.7121599999999999</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.9676199999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.7163200000000001</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.94238</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2.0665900000000001</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.9455499999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.5411600000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.99133</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.90337</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.86659</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.82836</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.97583</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.6169</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2.1396299999999999</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.97956</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.8420399999999999</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.7742199999999999</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.9756400000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2.0688599999999999</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.8586100000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2.01939</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.80884</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.5936399999999999</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2.0906799999999999</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.8922600000000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.8539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2.1431200000000001</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.8003</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.71905</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.71235</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2.1305999999999998</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2.0638999999999998</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2.0881599999999998</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>2.14777</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.9743599999999999</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.98011</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2.1109300000000002</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2.0254500000000002</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.7540199999999999</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.8887700000000001</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2.2021700000000002</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.92967</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.7637799999999999</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.71458</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.9417</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.0201099999999999</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.94994</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>2.2778700000000001</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>2.2295500000000001</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.9293100000000001</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2.0316299999999998</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2.0712999999999999</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.9583200000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.7708600000000001</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.9337200000000001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.8759300000000001</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>2.2699600000000002</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.8037399999999999</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.96475</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.9008499999999999</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2.2167400000000002</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.8493900000000001</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2.29555</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.9859500000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.8271299999999999</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2.1782300000000001</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>2.3000699999999998</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>2.2526299999999999</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>2.3097500000000002</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>2.3597399999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.9660500000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2.3459699999999999</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>2.2473000000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1.9040600000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>2.00258</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1.9286300000000001</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>2.08081</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2.2654999999999998</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2.3889200000000002</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1.81907</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>2.05911</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>2.14093</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>2.2656999999999998</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1.8603400000000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1.8933199999999999</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1.82927</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>2.0591400000000002</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>2.0839699999999999</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2.2602099999999998</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2.29312</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1.91638</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2.0715400000000002</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2.43838</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2.4668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2.2904900000000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>2.3074400000000002</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2.3948299999999998</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1.9417899999999999</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>2.3201299999999998</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>2.07342</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1.91743</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>2.1005699999999998</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>2.2961999999999998</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>2.0437099999999999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>2.1026799999999999</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2.26105</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>2.2332800000000002</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1.98783</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>2.0057299999999998</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>2.4811200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D57D-4927-B133-17C9C39C94C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1376376816"/>
+        <c:axId val="1376377296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1376376816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376377296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1376377296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376376816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>211930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B7C39-8FFC-E0C2-3AE9-30A5B6AF97BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,18 +5193,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,39 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>281.63</v>
-      </c>
-      <c r="B2">
-        <v>-63.288200000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>281.54700000000003</v>
-      </c>
-      <c r="B3">
-        <v>-63.310299999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>281.53300000000002</v>
-      </c>
-      <c r="B4">
-        <v>-63.265500000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>281.60300000000001</v>
-      </c>
-      <c r="B5">
-        <v>-63.266399999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>400.44499999999999</v>
       </c>
@@ -944,7 +5222,7 @@
         <v>-0.123949</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>400.43299999999999</v>
       </c>
@@ -952,7 +5230,7 @@
         <v>-0.324602</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>400.44099999999997</v>
       </c>
@@ -960,7 +5238,7 @@
         <v>-0.31495299999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>600.15200000000004</v>
       </c>
@@ -968,7 +5246,7 @@
         <v>-3.0386300000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>600.14499999999998</v>
       </c>
@@ -976,7 +5254,7 @@
         <v>-2.3685500000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>600.15300000000002</v>
       </c>
@@ -984,7 +5262,7 @@
         <v>0.170566</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>800.19399999999996</v>
       </c>
@@ -992,7 +5270,7 @@
         <v>-2.47584E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>800.19500000000005</v>
       </c>
@@ -1000,7 +5278,7 @@
         <v>-6.2377700000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>800.197</v>
       </c>
@@ -1008,7 +5286,7 @@
         <v>-7.1553599999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>800.19500000000005</v>
       </c>
@@ -1016,7 +5294,7 @@
         <v>-1.8797600000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1000.25</v>
       </c>
@@ -1024,7 +5302,7 @@
         <v>9.4526699999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1000.25</v>
       </c>
@@ -1032,7 +5310,7 @@
         <v>2.5481199999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1000.25</v>
       </c>
@@ -1040,7 +5318,7 @@
         <v>4.4694900000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1200.3</v>
       </c>
@@ -1048,7 +5326,7 @@
         <v>2.0072E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1200.3</v>
       </c>
@@ -1056,7 +5334,7 @@
         <v>2.0489799999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1200.3</v>
       </c>
@@ -1064,7 +5342,7 @@
         <v>-5.80216E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1400.16</v>
       </c>
@@ -1072,7 +5350,7 @@
         <v>3.8824699999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1400.16</v>
       </c>
@@ -1080,7 +5358,7 @@
         <v>1.3425599999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1400.17</v>
       </c>
@@ -1088,7 +5366,7 @@
         <v>0.27977299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1600.21</v>
       </c>
@@ -1096,7 +5374,7 @@
         <v>2.3016700000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1600.21</v>
       </c>
@@ -1104,7 +5382,7 @@
         <v>3.4652599999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1600.21</v>
       </c>
@@ -1112,7 +5390,7 @@
         <v>4.1418000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1600.21</v>
       </c>
@@ -1120,7 +5398,7 @@
         <v>2.7144100000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1800.25</v>
       </c>
@@ -1128,7 +5406,7 @@
         <v>5.1673400000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1800.25</v>
       </c>
@@ -1136,7 +5414,7 @@
         <v>5.0612200000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1800.26</v>
       </c>
@@ -1144,7 +5422,7 @@
         <v>4.9717600000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2000.12</v>
       </c>
@@ -1152,7 +5430,7 @@
         <v>0.103258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2000.13</v>
       </c>
@@ -1160,7 +5438,7 @@
         <v>6.3791700000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2000.12</v>
       </c>
@@ -1168,7 +5446,7 @@
         <v>7.4710700000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2200.1799999999998</v>
       </c>
@@ -1176,7 +5454,7 @@
         <v>5.0943299999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2200.17</v>
       </c>
@@ -1184,7 +5462,7 @@
         <v>-1.0041400000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2200.17</v>
       </c>
@@ -1192,7 +5470,7 @@
         <v>-1.1086499999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2200.1799999999998</v>
       </c>
@@ -1200,7 +5478,7 @@
         <v>5.2601599999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2400.2199999999998</v>
       </c>
@@ -1208,7 +5486,7 @@
         <v>4.4026000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2400.2199999999998</v>
       </c>
@@ -1216,7 +5494,7 @@
         <v>5.4374199999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2400.2199999999998</v>
       </c>
@@ -1224,7 +5502,7 @@
         <v>4.2521399999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2600.27</v>
       </c>
@@ -1232,7 +5510,7 @@
         <v>6.3092300000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2600.27</v>
       </c>
@@ -1240,7 +5518,7 @@
         <v>7.8774399999999994E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2600.27</v>
       </c>
@@ -1248,7 +5526,7 @@
         <v>9.0709700000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2800.13</v>
       </c>
@@ -1256,7 +5534,7 @@
         <v>0.10568900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2800.14</v>
       </c>
@@ -1264,7 +5542,7 @@
         <v>8.06452E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2800.13</v>
       </c>
@@ -1272,7 +5550,7 @@
         <v>0.100464</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3000.18</v>
       </c>
@@ -1280,7 +5558,7 @@
         <v>9.7426200000000004E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3000.18</v>
       </c>
@@ -1288,7 +5566,7 @@
         <v>9.5102800000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3000.18</v>
       </c>
@@ -1296,7 +5574,7 @@
         <v>0.131357</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3000.18</v>
       </c>
@@ -1304,7 +5582,7 @@
         <v>0.109073</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3200.22</v>
       </c>
@@ -1312,7 +5590,7 @@
         <v>0.17190800000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3200.23</v>
       </c>
@@ -1320,7 +5598,7 @@
         <v>0.177284</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3200.23</v>
       </c>
@@ -1328,7 +5606,7 @@
         <v>0.151536</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3400.28</v>
       </c>
@@ -1336,7 +5614,7 @@
         <v>0.15807499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3400.28</v>
       </c>
@@ -1344,7 +5622,7 @@
         <v>0.20743500000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3400.28</v>
       </c>
@@ -1352,7 +5630,7 @@
         <v>7.3173199999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3600.14</v>
       </c>
@@ -1360,7 +5638,7 @@
         <v>0.133825</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3600.14</v>
       </c>
@@ -1368,7 +5646,7 @@
         <v>8.4725400000000006E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3600.14</v>
       </c>
@@ -1376,7 +5654,7 @@
         <v>8.5293999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3600.14</v>
       </c>
@@ -1384,7 +5662,7 @@
         <v>0.106535</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3800.2</v>
       </c>
@@ -1392,7 +5670,7 @@
         <v>0.123686</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3800.19</v>
       </c>
@@ -1400,7 +5678,7 @@
         <v>0.11928</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3800.19</v>
       </c>
@@ -1408,7 +5686,7 @@
         <v>0.196495</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>4000.24</v>
       </c>
@@ -1416,7 +5694,7 @@
         <v>0.19553799999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>4000.24</v>
       </c>
@@ -1424,7 +5702,7 @@
         <v>0.17124600000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>4000.25</v>
       </c>
@@ -1432,7 +5710,7 @@
         <v>0.20689299999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4200.29</v>
       </c>
@@ -1440,7 +5718,7 @@
         <v>0.224776</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>4200.29</v>
       </c>
@@ -1448,7 +5726,7 @@
         <v>0.209288</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>4200.29</v>
       </c>
@@ -1456,7 +5734,7 @@
         <v>0.183365</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>4400.1499999999996</v>
       </c>
@@ -1464,7 +5742,7 @@
         <v>0.27207599999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>4400.1499999999996</v>
       </c>
@@ -1472,7 +5750,7 @@
         <v>0.22398299999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>4400.1499999999996</v>
       </c>
@@ -1480,7 +5758,7 @@
         <v>0.27081499999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>4400.1499999999996</v>
       </c>
@@ -1488,7 +5766,7 @@
         <v>0.189085</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>4600.2</v>
       </c>
@@ -1496,7 +5774,7 @@
         <v>0.26743299999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>4600.21</v>
       </c>
@@ -1504,7 +5782,7 @@
         <v>0.26533499999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4600.21</v>
       </c>
@@ -1512,7 +5790,7 @@
         <v>0.21199499999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4800.25</v>
       </c>
@@ -1520,7 +5798,7 @@
         <v>0.18287300000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>4800.26</v>
       </c>
@@ -1528,7 +5806,7 @@
         <v>0.24529300000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>4800.25</v>
       </c>
@@ -1536,7 +5814,7 @@
         <v>0.30290899999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>5000.3</v>
       </c>
@@ -1544,7 +5822,7 @@
         <v>0.26882400000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>5000.3</v>
       </c>
@@ -1552,7 +5830,7 @@
         <v>0.29813200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>5000.3100000000004</v>
       </c>
@@ -1560,7 +5838,7 @@
         <v>0.216364</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>5000.3</v>
       </c>
@@ -1568,7 +5846,7 @@
         <v>0.228909</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>5200.17</v>
       </c>
@@ -1576,7 +5854,7 @@
         <v>0.34982999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>5200.16</v>
       </c>
@@ -1584,7 +5862,7 @@
         <v>0.320492</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>5200.17</v>
       </c>
@@ -1592,7 +5870,7 @@
         <v>0.230156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>5400.21</v>
       </c>
@@ -1600,7 +5878,7 @@
         <v>0.30830200000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>5400.22</v>
       </c>
@@ -1608,7 +5886,7 @@
         <v>0.23604600000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>5400.21</v>
       </c>
@@ -1616,7 +5894,7 @@
         <v>0.23697699999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>5600.27</v>
       </c>
@@ -1624,7 +5902,7 @@
         <v>0.31625900000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5600.25</v>
       </c>
@@ -1632,7 +5910,7 @@
         <v>0.35198699999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>5600.26</v>
       </c>
@@ -1640,7 +5918,7 @@
         <v>0.26300099999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>5600.26</v>
       </c>
@@ -1648,7 +5926,7 @@
         <v>0.34377200000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5800.31</v>
       </c>
@@ -1656,7 +5934,7 @@
         <v>0.37114900000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>5800.31</v>
       </c>
@@ -1664,7 +5942,7 @@
         <v>0.35291499999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>5800.31</v>
       </c>
@@ -1672,7 +5950,7 @@
         <v>0.30393300000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>6000.18</v>
       </c>
@@ -1680,7 +5958,7 @@
         <v>0.33772400000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>6000.18</v>
       </c>
@@ -1688,7 +5966,7 @@
         <v>0.35171999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>6000.18</v>
       </c>
@@ -1696,7 +5974,7 @@
         <v>0.36064299999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6200.23</v>
       </c>
@@ -1704,7 +5982,7 @@
         <v>0.38967000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6200.23</v>
       </c>
@@ -1712,7 +5990,7 @@
         <v>0.34720400000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6200.22</v>
       </c>
@@ -1720,7 +5998,7 @@
         <v>0.36221599999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6400.28</v>
       </c>
@@ -1728,7 +6006,7 @@
         <v>0.33554699999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6400.28</v>
       </c>
@@ -1736,7 +6014,7 @@
         <v>0.345472</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>6400.27</v>
       </c>
@@ -1744,7 +6022,7 @@
         <v>0.35846699999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6400.28</v>
       </c>
@@ -1752,7 +6030,7 @@
         <v>0.35435499999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>6600.33</v>
       </c>
@@ -1760,7 +6038,7 @@
         <v>0.267428</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>6600.32</v>
       </c>
@@ -1768,7 +6046,7 @@
         <v>0.41473900000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>6600.32</v>
       </c>
@@ -1776,7 +6054,7 @@
         <v>0.41018500000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>6800.19</v>
       </c>
@@ -1784,7 +6062,7 @@
         <v>0.34445799999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>6800.19</v>
       </c>
@@ -1792,7 +6070,7 @@
         <v>0.36611399999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>6800.19</v>
       </c>
@@ -1800,7 +6078,7 @@
         <v>0.36170999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>7000.24</v>
       </c>
@@ -1808,7 +6086,7 @@
         <v>0.41778199999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>7000.24</v>
       </c>
@@ -1816,7 +6094,7 @@
         <v>0.37494499999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>7000.24</v>
       </c>
@@ -1824,7 +6102,7 @@
         <v>0.45191300000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>7000.24</v>
       </c>
@@ -1832,7 +6110,7 @@
         <v>0.36113200000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>7200.29</v>
       </c>
@@ -1840,7 +6118,7 @@
         <v>0.32795600000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>7200.28</v>
       </c>
@@ -1848,7 +6126,7 @@
         <v>0.370392</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>7200.29</v>
       </c>
@@ -1856,7 +6134,7 @@
         <v>0.44680700000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>7400.34</v>
       </c>
@@ -1864,7 +6142,7 @@
         <v>0.40828399999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>7400.33</v>
       </c>
@@ -1872,7 +6150,7 @@
         <v>0.36757699999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7400.34</v>
       </c>
@@ -1880,7 +6158,7 @@
         <v>0.40131</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>7600.2</v>
       </c>
@@ -1888,7 +6166,7 @@
         <v>0.38119900000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>7600.2</v>
       </c>
@@ -1896,7 +6174,7 @@
         <v>0.453735</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>7600.2</v>
       </c>
@@ -1904,7 +6182,7 @@
         <v>0.35210799999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>7800.25</v>
       </c>
@@ -1912,7 +6190,7 @@
         <v>0.32111899999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>7800.25</v>
       </c>
@@ -1920,7 +6198,7 @@
         <v>0.49230699999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>7800.25</v>
       </c>
@@ -1928,7 +6206,7 @@
         <v>0.38964500000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>7800.25</v>
       </c>
@@ -1936,7 +6214,7 @@
         <v>0.42085299999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>8000.3</v>
       </c>
@@ -1944,7 +6222,7 @@
         <v>0.47527999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>8000.3</v>
       </c>
@@ -1952,7 +6230,7 @@
         <v>0.47054600000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8000.3</v>
       </c>
@@ -1960,7 +6238,7 @@
         <v>0.44902199999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>8200.16</v>
       </c>
@@ -1968,7 +6246,7 @@
         <v>0.52734199999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>8200.16</v>
       </c>
@@ -1976,7 +6254,7 @@
         <v>0.41453200000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>8200.17</v>
       </c>
@@ -1984,7 +6262,7 @@
         <v>0.38445800000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8400.2099999999991</v>
       </c>
@@ -1992,7 +6270,7 @@
         <v>0.41444500000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>8400.2099999999991</v>
       </c>
@@ -2000,7 +6278,7 @@
         <v>0.48953600000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>8400.2099999999991</v>
       </c>
@@ -2008,15 +6286,7 @@
         <v>0.426178</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>8600</v>
-      </c>
-      <c r="B140">
-        <v>-27.397200000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>8600.26</v>
       </c>
@@ -2024,7 +6294,7 @@
         <v>0.39794000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>8600.26</v>
       </c>
@@ -2032,7 +6302,7 @@
         <v>0.46341199999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>8600.26</v>
       </c>
@@ -2040,7 +6310,7 @@
         <v>0.46212399999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>8800.31</v>
       </c>
@@ -2048,7 +6318,7 @@
         <v>0.50713699999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>8800.31</v>
       </c>
@@ -2056,7 +6326,7 @@
         <v>0.51425900000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>8800.31</v>
       </c>
@@ -2064,7 +6334,7 @@
         <v>0.40472799999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>9000.17</v>
       </c>
@@ -2072,7 +6342,7 @@
         <v>0.56194299999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>9000.17</v>
       </c>
@@ -2080,7 +6350,7 @@
         <v>0.47461300000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>9000.17</v>
       </c>
@@ -2088,7 +6358,7 @@
         <v>0.536497</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>9200.2199999999993</v>
       </c>
@@ -2096,7 +6366,7 @@
         <v>0.53228399999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>9200.2199999999993</v>
       </c>
@@ -2104,7 +6374,7 @@
         <v>0.52303699999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>9200.2199999999993</v>
       </c>
@@ -2112,7 +6382,7 @@
         <v>0.42851800000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>9200.2199999999993</v>
       </c>
@@ -2120,7 +6390,7 @@
         <v>0.514706</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>9400.27</v>
       </c>
@@ -2128,7 +6398,7 @@
         <v>0.55741499999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>9400.27</v>
       </c>
@@ -2136,7 +6406,7 @@
         <v>0.49878800000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>9400.2800000000007</v>
       </c>
@@ -2144,7 +6414,7 @@
         <v>0.50580099999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>9600.32</v>
       </c>
@@ -2152,7 +6422,7 @@
         <v>0.47874499999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>9600.31</v>
       </c>
@@ -2160,7 +6430,7 @@
         <v>0.50597000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>9600.32</v>
       </c>
@@ -2168,7 +6438,7 @@
         <v>0.61652399999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>9800.19</v>
       </c>
@@ -2176,7 +6446,7 @@
         <v>0.44251000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>9800.18</v>
       </c>
@@ -2184,7 +6454,7 @@
         <v>0.62261999999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>9800.19</v>
       </c>
@@ -2192,7 +6462,7 @@
         <v>0.63744100000000004</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>10000.200000000001</v>
       </c>
@@ -2200,7 +6470,7 @@
         <v>0.61496899999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>10000.200000000001</v>
       </c>
@@ -2208,7 +6478,7 @@
         <v>0.47849000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>10000.200000000001</v>
       </c>
@@ -2216,7 +6486,7 @@
         <v>0.58943199999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>10000.200000000001</v>
       </c>
@@ -2224,7 +6494,7 @@
         <v>0.56852199999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>10200.299999999999</v>
       </c>
@@ -2232,7 +6502,7 @@
         <v>0.58252099999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>10200.299999999999</v>
       </c>
@@ -2240,7 +6510,7 @@
         <v>0.527474</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>10200.299999999999</v>
       </c>
@@ -2248,7 +6518,7 @@
         <v>0.58173900000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>10400.299999999999</v>
       </c>
@@ -2256,7 +6526,7 @@
         <v>0.64098299999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>10400.299999999999</v>
       </c>
@@ -2264,7 +6534,7 @@
         <v>0.63958099999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>10400.299999999999</v>
       </c>
@@ -2272,7 +6542,7 @@
         <v>0.56359400000000004</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>10600.2</v>
       </c>
@@ -2280,7 +6550,7 @@
         <v>0.58465400000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>10600.2</v>
       </c>
@@ -2288,7 +6558,7 @@
         <v>0.49601299999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>10600.2</v>
       </c>
@@ -2296,7 +6566,7 @@
         <v>0.51620299999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>10600.2</v>
       </c>
@@ -2304,7 +6574,7 @@
         <v>0.57018100000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>10800.2</v>
       </c>
@@ -2312,7 +6582,7 @@
         <v>0.62680599999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>10800.2</v>
       </c>
@@ -2320,7 +6590,7 @@
         <v>0.53208599999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>10800.2</v>
       </c>
@@ -2328,7 +6598,7 @@
         <v>0.52096299999999995</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>11000.3</v>
       </c>
@@ -2336,7 +6606,7 @@
         <v>0.70084100000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>11000.3</v>
       </c>
@@ -2344,7 +6614,7 @@
         <v>0.67874299999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>11000.3</v>
       </c>
@@ -2352,7 +6622,7 @@
         <v>0.68700700000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>11200.3</v>
       </c>
@@ -2360,7 +6630,7 @@
         <v>0.54738900000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>11200.3</v>
       </c>
@@ -2368,7 +6638,7 @@
         <v>0.59798799999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>11200.3</v>
       </c>
@@ -2376,7 +6646,7 @@
         <v>0.750749</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>11400.2</v>
       </c>
@@ -2384,7 +6654,7 @@
         <v>0.72326199999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>11400.2</v>
       </c>
@@ -2392,7 +6662,7 @@
         <v>0.68930999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>11400.2</v>
       </c>
@@ -2400,7 +6670,7 @@
         <v>0.607823</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>11400.2</v>
       </c>
@@ -2408,7 +6678,7 @@
         <v>0.66657500000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>11600.3</v>
       </c>
@@ -2416,7 +6686,7 @@
         <v>0.57850500000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>11600.3</v>
       </c>
@@ -2424,7 +6694,7 @@
         <v>0.64363400000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>11600.3</v>
       </c>
@@ -2432,7 +6702,7 @@
         <v>0.76685599999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>11800.3</v>
       </c>
@@ -2440,7 +6710,7 @@
         <v>0.62744200000000006</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>11800.3</v>
       </c>
@@ -2448,7 +6718,7 @@
         <v>0.65970700000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>11800.3</v>
       </c>
@@ -2456,7 +6726,7 @@
         <v>0.60210300000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>12000.4</v>
       </c>
@@ -2464,7 +6734,7 @@
         <v>0.750197</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>12000.4</v>
       </c>
@@ -2472,7 +6742,7 @@
         <v>0.78802700000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>12000.4</v>
       </c>
@@ -2480,7 +6750,7 @@
         <v>0.78317599999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>12000.4</v>
       </c>
@@ -2488,7 +6758,7 @@
         <v>0.68339499999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>12200.2</v>
       </c>
@@ -2496,7 +6766,7 @@
         <v>0.69269199999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>12200.2</v>
       </c>
@@ -2504,7 +6774,7 @@
         <v>0.75643800000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>12200.2</v>
       </c>
@@ -2512,7 +6782,7 @@
         <v>0.73897900000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>12400.3</v>
       </c>
@@ -2520,7 +6790,7 @@
         <v>0.80319499999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>12400.3</v>
       </c>
@@ -2528,7 +6798,7 @@
         <v>0.56525199999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>12400.3</v>
       </c>
@@ -2536,7 +6806,7 @@
         <v>0.75866900000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>12600.3</v>
       </c>
@@ -2544,7 +6814,7 @@
         <v>0.76910000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>12600.3</v>
       </c>
@@ -2552,7 +6822,7 @@
         <v>0.76154699999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>12600.3</v>
       </c>
@@ -2560,7 +6830,7 @@
         <v>0.79619700000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>12800.4</v>
       </c>
@@ -2568,7 +6838,7 @@
         <v>0.79778899999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>12800.4</v>
       </c>
@@ -2576,7 +6846,7 @@
         <v>0.85435700000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>12800.4</v>
       </c>
@@ -2584,7 +6854,7 @@
         <v>0.63761199999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>12800.4</v>
       </c>
@@ -2592,7 +6862,7 @@
         <v>0.69820700000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>13000.2</v>
       </c>
@@ -2600,7 +6870,7 @@
         <v>0.71745700000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>13000.2</v>
       </c>
@@ -2608,7 +6878,7 @@
         <v>0.79637100000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>13000.2</v>
       </c>
@@ -2616,7 +6886,7 @@
         <v>0.81312799999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>13200.3</v>
       </c>
@@ -2624,7 +6894,7 @@
         <v>0.92342000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>13200.3</v>
       </c>
@@ -2632,7 +6902,7 @@
         <v>0.76844500000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>13200.3</v>
       </c>
@@ -2640,7 +6910,7 @@
         <v>0.76932999999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>13400.3</v>
       </c>
@@ -2648,7 +6918,7 @@
         <v>0.65630599999999994</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>13400.3</v>
       </c>
@@ -2656,7 +6926,7 @@
         <v>0.85667300000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>13400.3</v>
       </c>
@@ -2664,7 +6934,7 @@
         <v>0.82899800000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>13400.3</v>
       </c>
@@ -2672,7 +6942,7 @@
         <v>0.78956999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>13600.4</v>
       </c>
@@ -2680,7 +6950,7 @@
         <v>0.886266</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>13600.4</v>
       </c>
@@ -2688,7 +6958,7 @@
         <v>0.72682800000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>13600.4</v>
       </c>
@@ -2696,7 +6966,7 @@
         <v>0.69718599999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>13800.2</v>
       </c>
@@ -2704,7 +6974,7 @@
         <v>0.79962200000000005</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>13800.2</v>
       </c>
@@ -2712,7 +6982,7 @@
         <v>0.75945300000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>13800.2</v>
       </c>
@@ -2720,7 +6990,7 @@
         <v>0.90257200000000004</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>14000.3</v>
       </c>
@@ -2728,7 +6998,7 @@
         <v>0.89367799999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>14000.3</v>
       </c>
@@ -2736,7 +7006,7 @@
         <v>0.76488800000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>14000.3</v>
       </c>
@@ -2744,7 +7014,7 @@
         <v>0.91696699999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>14000.3</v>
       </c>
@@ -2752,7 +7022,7 @@
         <v>0.724078</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>14200.3</v>
       </c>
@@ -2760,7 +7030,7 @@
         <v>0.78511699999999995</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>14200.3</v>
       </c>
@@ -2768,7 +7038,7 @@
         <v>0.77525599999999995</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>14200.3</v>
       </c>
@@ -2776,7 +7046,7 @@
         <v>0.789524</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>14400.2</v>
       </c>
@@ -2784,7 +7054,7 @@
         <v>0.77984500000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>14400.2</v>
       </c>
@@ -2792,7 +7062,7 @@
         <v>0.81916800000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>14400.2</v>
       </c>
@@ -2800,7 +7070,7 @@
         <v>0.76903600000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>14600.2</v>
       </c>
@@ -2808,7 +7078,7 @@
         <v>0.78555900000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>14600.2</v>
       </c>
@@ -2816,7 +7086,7 @@
         <v>0.85611000000000004</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>14600.2</v>
       </c>
@@ -2824,7 +7094,7 @@
         <v>0.94367800000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>14800.3</v>
       </c>
@@ -2832,7 +7102,7 @@
         <v>0.86008300000000004</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>14800.3</v>
       </c>
@@ -2840,7 +7110,7 @@
         <v>0.92293999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>14800.3</v>
       </c>
@@ -2848,7 +7118,7 @@
         <v>0.77333600000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>14800.3</v>
       </c>
@@ -2856,7 +7126,7 @@
         <v>0.793207</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>15000.3</v>
       </c>
@@ -2864,7 +7134,7 @@
         <v>1.0147299999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>15000.4</v>
       </c>
@@ -2872,7 +7142,7 @@
         <v>0.95363200000000004</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>15000.3</v>
       </c>
@@ -2880,7 +7150,7 @@
         <v>0.790466</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>15200.2</v>
       </c>
@@ -2888,7 +7158,7 @@
         <v>1.0286</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>15200.2</v>
       </c>
@@ -2896,7 +7166,7 @@
         <v>1.0159199999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>15200.2</v>
       </c>
@@ -2904,7 +7174,7 @@
         <v>0.88267300000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>15400.3</v>
       </c>
@@ -2912,7 +7182,7 @@
         <v>0.87891399999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>15400.3</v>
       </c>
@@ -2920,7 +7190,7 @@
         <v>0.79149000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>15400.3</v>
       </c>
@@ -2928,7 +7198,7 @@
         <v>0.96384000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>15600.3</v>
       </c>
@@ -2936,7 +7206,7 @@
         <v>0.99840700000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>15600.3</v>
       </c>
@@ -2944,7 +7214,7 @@
         <v>1.02007</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>15600.3</v>
       </c>
@@ -2952,7 +7222,7 @@
         <v>0.86328000000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>15600.3</v>
       </c>
@@ -2960,7 +7230,7 @@
         <v>0.93610899999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>15800.4</v>
       </c>
@@ -2968,7 +7238,7 @@
         <v>1.00637</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>15800.4</v>
       </c>
@@ -2976,7 +7246,7 @@
         <v>1.00322</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>15800.4</v>
       </c>
@@ -2984,7 +7254,7 @@
         <v>0.84559099999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>16000.2</v>
       </c>
@@ -2992,7 +7262,7 @@
         <v>0.97357700000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>16000.2</v>
       </c>
@@ -3000,7 +7270,7 @@
         <v>1.0086999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>16000.2</v>
       </c>
@@ -3008,7 +7278,7 @@
         <v>0.88362300000000005</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>16200.3</v>
       </c>
@@ -3016,7 +7286,7 @@
         <v>0.97005699999999995</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>16200.3</v>
       </c>
@@ -3024,7 +7294,7 @@
         <v>0.83171700000000004</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>16200.3</v>
       </c>
@@ -3032,7 +7302,7 @@
         <v>0.89046700000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>16200.3</v>
       </c>
@@ -3040,7 +7310,7 @@
         <v>1.0611200000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>16400.3</v>
       </c>
@@ -3048,7 +7318,7 @@
         <v>0.93897699999999995</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>16400.3</v>
       </c>
@@ -3056,7 +7326,7 @@
         <v>0.95576499999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>16400.3</v>
       </c>
@@ -3064,7 +7334,7 @@
         <v>1.01627</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>16600.400000000001</v>
       </c>
@@ -3072,7 +7342,7 @@
         <v>0.93111999999999995</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>16600.400000000001</v>
       </c>
@@ -3080,7 +7350,7 @@
         <v>1.1555500000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>16600.400000000001</v>
       </c>
@@ -3088,7 +7358,7 @@
         <v>1.0182800000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>16800.2</v>
       </c>
@@ -3096,7 +7366,7 @@
         <v>1.0582800000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>16800.2</v>
       </c>
@@ -3104,7 +7374,7 @@
         <v>1.04013</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>16800.2</v>
       </c>
@@ -3112,7 +7382,7 @@
         <v>1.1088499999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>17000.3</v>
       </c>
@@ -3120,7 +7390,7 @@
         <v>0.95184000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>17000.3</v>
       </c>
@@ -3128,7 +7398,7 @@
         <v>0.988676</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>17000.3</v>
       </c>
@@ -3136,7 +7406,7 @@
         <v>1.0327599999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>17000.3</v>
       </c>
@@ -3144,7 +7414,7 @@
         <v>0.90907899999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>17200.3</v>
       </c>
@@ -3152,7 +7422,7 @@
         <v>1.1174500000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>17200.3</v>
       </c>
@@ -3160,7 +7430,7 @@
         <v>1.11219</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>17200.3</v>
       </c>
@@ -3168,7 +7438,7 @@
         <v>1.0784</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>17400.400000000001</v>
       </c>
@@ -3176,7 +7446,7 @@
         <v>1.15421</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>17400.400000000001</v>
       </c>
@@ -3184,7 +7454,7 @@
         <v>1.2224200000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>17400.400000000001</v>
       </c>
@@ -3192,7 +7462,7 @@
         <v>1.1655500000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>17600.2</v>
       </c>
@@ -3200,7 +7470,7 @@
         <v>0.99710900000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>17600.2</v>
       </c>
@@ -3208,7 +7478,7 @@
         <v>0.96871600000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>17600.2</v>
       </c>
@@ -3216,7 +7486,7 @@
         <v>1.17073</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>17600.2</v>
       </c>
@@ -3224,7 +7494,7 @@
         <v>1.0625100000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>17800.3</v>
       </c>
@@ -3232,7 +7502,7 @@
         <v>1.05705</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>17800.3</v>
       </c>
@@ -3240,7 +7510,7 @@
         <v>1.03139</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>17800.3</v>
       </c>
@@ -3248,7 +7518,7 @@
         <v>1.0788599999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>18000.3</v>
       </c>
@@ -3256,7 +7526,7 @@
         <v>1.1118600000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>18000.3</v>
       </c>
@@ -3264,7 +7534,7 @@
         <v>1.0146999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>18000.3</v>
       </c>
@@ -3272,7 +7542,7 @@
         <v>0.94580900000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>18200.400000000001</v>
       </c>
@@ -3280,7 +7550,7 @@
         <v>1.1421600000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>18200.400000000001</v>
       </c>
@@ -3288,7 +7558,7 @@
         <v>1.17719</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>18200.400000000001</v>
       </c>
@@ -3296,7 +7566,7 @@
         <v>1.23031</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>18400.3</v>
       </c>
@@ -3304,7 +7574,7 @@
         <v>0.98680800000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>18400.3</v>
       </c>
@@ -3312,7 +7582,7 @@
         <v>1.1642399999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>18400.3</v>
       </c>
@@ -3320,7 +7590,7 @@
         <v>1.0611999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>18400.3</v>
       </c>
@@ -3328,7 +7598,7 @@
         <v>1.2492700000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>18600.3</v>
       </c>
@@ -3336,7 +7606,7 @@
         <v>1.27369</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>18600.3</v>
       </c>
@@ -3344,7 +7614,7 @@
         <v>1.0883</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>18600.3</v>
       </c>
@@ -3352,7 +7622,7 @@
         <v>1.0625500000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>18800.400000000001</v>
       </c>
@@ -3360,7 +7630,7 @@
         <v>1.2605999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>18800.400000000001</v>
       </c>
@@ -3368,7 +7638,7 @@
         <v>1.14368</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>18800.400000000001</v>
       </c>
@@ -3376,7 +7646,7 @@
         <v>1.3088900000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>19000.400000000001</v>
       </c>
@@ -3384,7 +7654,7 @@
         <v>1.02003</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>19000.400000000001</v>
       </c>
@@ -3392,7 +7662,7 @@
         <v>1.2186900000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>19000.400000000001</v>
       </c>
@@ -3400,7 +7670,7 @@
         <v>1.2426600000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>19000.400000000001</v>
       </c>
@@ -3408,7 +7678,7 @@
         <v>1.0795999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>19200.3</v>
       </c>
@@ -3416,7 +7686,7 @@
         <v>1.07419</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>19200.3</v>
       </c>
@@ -3424,7 +7694,7 @@
         <v>1.3907799999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>19200.3</v>
       </c>
@@ -3432,7 +7702,7 @@
         <v>1.2511699999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>19400.3</v>
       </c>
@@ -3440,7 +7710,7 @@
         <v>1.1261000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>19400.3</v>
       </c>
@@ -3448,7 +7718,7 @@
         <v>1.1039399999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>19400.3</v>
       </c>
@@ -3456,7 +7726,7 @@
         <v>1.3155300000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>19600.400000000001</v>
       </c>
@@ -3464,7 +7734,7 @@
         <v>1.23638</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>19600.400000000001</v>
       </c>
@@ -3472,7 +7742,7 @@
         <v>1.33402</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>19600.400000000001</v>
       </c>
@@ -3480,7 +7750,7 @@
         <v>1.1232599999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>19800.400000000001</v>
       </c>
@@ -3488,7 +7758,7 @@
         <v>1.1366799999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>19800.400000000001</v>
       </c>
@@ -3496,7 +7766,7 @@
         <v>1.1626799999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>19800.400000000001</v>
       </c>
@@ -3504,7 +7774,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>19800.400000000001</v>
       </c>
@@ -3512,7 +7782,7 @@
         <v>1.1427400000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>20000.3</v>
       </c>
@@ -3520,7 +7790,7 @@
         <v>1.18469</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>20000.3</v>
       </c>
@@ -3528,7 +7798,7 @@
         <v>1.0938399999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>20000.3</v>
       </c>
@@ -3536,7 +7806,7 @@
         <v>1.3551899999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>20200.3</v>
       </c>
@@ -3544,7 +7814,7 @@
         <v>1.2218199999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>20200.3</v>
       </c>
@@ -3552,7 +7822,7 @@
         <v>1.12713</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>20200.3</v>
       </c>
@@ -3560,7 +7830,7 @@
         <v>1.25823</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>20400.400000000001</v>
       </c>
@@ -3568,7 +7838,7 @@
         <v>1.2461899999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>20400.400000000001</v>
       </c>
@@ -3576,7 +7846,7 @@
         <v>1.36104</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>20400.400000000001</v>
       </c>
@@ -3584,7 +7854,7 @@
         <v>1.37019</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>20400.400000000001</v>
       </c>
@@ -3592,7 +7862,7 @@
         <v>1.4190100000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>20600.2</v>
       </c>
@@ -3600,7 +7870,7 @@
         <v>1.1621699999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>20600.2</v>
       </c>
@@ -3608,7 +7878,7 @@
         <v>1.2822100000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>20600.2</v>
       </c>
@@ -3616,7 +7886,7 @@
         <v>1.35395</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>20800.3</v>
       </c>
@@ -3624,7 +7894,7 @@
         <v>1.41211</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>20800.3</v>
       </c>
@@ -3632,7 +7902,7 @@
         <v>1.35503</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>20800.3</v>
       </c>
@@ -3640,7 +7910,7 @@
         <v>1.40615</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>21000.3</v>
       </c>
@@ -3648,7 +7918,7 @@
         <v>1.31325</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>21000.3</v>
       </c>
@@ -3656,7 +7926,7 @@
         <v>1.1444300000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>21000.3</v>
       </c>
@@ -3664,7 +7934,7 @@
         <v>1.4261200000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>21200.400000000001</v>
       </c>
@@ -3672,7 +7942,7 @@
         <v>1.14439</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>21200.400000000001</v>
       </c>
@@ -3680,7 +7950,7 @@
         <v>1.50667</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>21200.400000000001</v>
       </c>
@@ -3688,7 +7958,7 @@
         <v>1.21255</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>21200.400000000001</v>
       </c>
@@ -3696,7 +7966,7 @@
         <v>1.2600499999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>21400.3</v>
       </c>
@@ -3704,7 +7974,7 @@
         <v>1.4539899999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>21400.3</v>
       </c>
@@ -3712,7 +7982,7 @@
         <v>1.17197</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>21400.3</v>
       </c>
@@ -3720,7 +7990,7 @@
         <v>1.48115</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>21600.3</v>
       </c>
@@ -3728,7 +7998,7 @@
         <v>1.4382200000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>21600.3</v>
       </c>
@@ -3736,7 +8006,7 @@
         <v>1.2874699999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>21600.3</v>
       </c>
@@ -3744,7 +8014,7 @@
         <v>1.3436399999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>21800.400000000001</v>
       </c>
@@ -3752,7 +8022,7 @@
         <v>1.3850199999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>21800.400000000001</v>
       </c>
@@ -3760,7 +8030,7 @@
         <v>1.2513000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>21800.400000000001</v>
       </c>
@@ -3768,7 +8038,7 @@
         <v>1.33186</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>22000.400000000001</v>
       </c>
@@ -3776,7 +8046,7 @@
         <v>1.3375999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>22000.400000000001</v>
       </c>
@@ -3784,7 +8054,7 @@
         <v>1.17038</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>22000.400000000001</v>
       </c>
@@ -3792,7 +8062,7 @@
         <v>1.5182199999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>22000.400000000001</v>
       </c>
@@ -3800,7 +8070,7 @@
         <v>1.21655</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>22200.3</v>
       </c>
@@ -3808,7 +8078,7 @@
         <v>1.2133499999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>22200.3</v>
       </c>
@@ -3816,7 +8086,7 @@
         <v>1.5904499999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>22200.3</v>
       </c>
@@ -3824,7 +8094,7 @@
         <v>1.5814699999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>22400.3</v>
       </c>
@@ -3832,7 +8102,7 @@
         <v>1.57562</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>22400.3</v>
       </c>
@@ -3840,7 +8110,7 @@
         <v>1.4146300000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>22400.3</v>
       </c>
@@ -3848,7 +8118,7 @@
         <v>1.6229499999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>22600.400000000001</v>
       </c>
@@ -3856,7 +8126,7 @@
         <v>1.4494</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>22600.400000000001</v>
       </c>
@@ -3864,7 +8134,7 @@
         <v>1.21549</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>22600.400000000001</v>
       </c>
@@ -3872,7 +8142,7 @@
         <v>1.4971099999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>22600.400000000001</v>
       </c>
@@ -3880,7 +8150,7 @@
         <v>1.4390099999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>22800.400000000001</v>
       </c>
@@ -3888,7 +8158,7 @@
         <v>1.5222199999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>22800.400000000001</v>
       </c>
@@ -3896,7 +8166,7 @@
         <v>1.53382</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>22800.400000000001</v>
       </c>
@@ -3904,7 +8174,7 @@
         <v>1.2138899999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>23000.3</v>
       </c>
@@ -3912,7 +8182,7 @@
         <v>1.56514</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>23000.3</v>
       </c>
@@ -3920,7 +8190,7 @@
         <v>1.24905</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>23000.3</v>
       </c>
@@ -3928,7 +8198,7 @@
         <v>1.5993200000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>23200.3</v>
       </c>
@@ -3936,7 +8206,7 @@
         <v>1.4291499999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>23200.3</v>
       </c>
@@ -3944,7 +8214,7 @@
         <v>1.6415999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>23200.3</v>
       </c>
@@ -3952,7 +8222,7 @@
         <v>1.3453599999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>23400.400000000001</v>
       </c>
@@ -3960,7 +8230,7 @@
         <v>1.32884</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>23400.400000000001</v>
       </c>
@@ -3968,7 +8238,7 @@
         <v>1.4356</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>23400.400000000001</v>
       </c>
@@ -3976,7 +8246,7 @@
         <v>1.3892500000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>23400.400000000001</v>
       </c>
@@ -3984,7 +8254,7 @@
         <v>1.33525</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>23600.400000000001</v>
       </c>
@@ -3992,7 +8262,7 @@
         <v>1.60989</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>23600.400000000001</v>
       </c>
@@ -4000,7 +8270,7 @@
         <v>1.70634</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>23600.400000000001</v>
       </c>
@@ -4008,7 +8278,7 @@
         <v>1.3580700000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>23800.3</v>
       </c>
@@ -4016,7 +8286,7 @@
         <v>1.6582399999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>23800.3</v>
       </c>
@@ -4024,7 +8294,7 @@
         <v>1.4999899999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>23800.3</v>
       </c>
@@ -4032,7 +8302,7 @@
         <v>1.66259</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>24000.3</v>
       </c>
@@ -4040,7 +8310,7 @@
         <v>1.6313800000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>24000.3</v>
       </c>
@@ -4048,7 +8318,7 @@
         <v>1.7118899999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>24000.3</v>
       </c>
@@ -4056,7 +8326,7 @@
         <v>1.33796</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>24200.400000000001</v>
       </c>
@@ -4064,7 +8334,7 @@
         <v>1.3582700000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>24200.400000000001</v>
       </c>
@@ -4072,7 +8342,7 @@
         <v>1.5248200000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>24200.400000000001</v>
       </c>
@@ -4080,7 +8350,7 @@
         <v>1.58172</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>24200.400000000001</v>
       </c>
@@ -4088,7 +8358,7 @@
         <v>1.53257</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>24400.400000000001</v>
       </c>
@@ -4096,7 +8366,7 @@
         <v>1.43598</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>24400.400000000001</v>
       </c>
@@ -4104,7 +8374,7 @@
         <v>1.5220499999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>24400.400000000001</v>
       </c>
@@ -4112,7 +8382,7 @@
         <v>1.5382499999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>24600.3</v>
       </c>
@@ -4120,7 +8390,7 @@
         <v>1.3876299999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>24600.3</v>
       </c>
@@ -4128,7 +8398,7 @@
         <v>1.6281399999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>24600.3</v>
       </c>
@@ -4136,7 +8406,7 @@
         <v>1.6958800000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>24800.3</v>
       </c>
@@ -4144,7 +8414,7 @@
         <v>1.2903899999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>24800.3</v>
       </c>
@@ -4152,7 +8422,7 @@
         <v>1.6540600000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>24800.3</v>
       </c>
@@ -4160,7 +8430,7 @@
         <v>1.43631</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>24800.3</v>
       </c>
@@ -4168,7 +8438,7 @@
         <v>1.5656000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>25000.400000000001</v>
       </c>
@@ -4176,7 +8446,7 @@
         <v>1.3666199999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>25000.400000000001</v>
       </c>
@@ -4184,7 +8454,7 @@
         <v>1.7168000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>25000.400000000001</v>
       </c>
@@ -4192,7 +8462,7 @@
         <v>1.8126599999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>25200.400000000001</v>
       </c>
@@ -4200,7 +8470,7 @@
         <v>1.4765699999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>25200.400000000001</v>
       </c>
@@ -4208,7 +8478,7 @@
         <v>1.67933</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>25200.400000000001</v>
       </c>
@@ -4216,7 +8486,7 @@
         <v>1.51678</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>25400.3</v>
       </c>
@@ -4224,7 +8494,7 @@
         <v>1.6829499999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>25400.3</v>
       </c>
@@ -4232,7 +8502,7 @@
         <v>1.4572700000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>25400.3</v>
       </c>
@@ -4240,7 +8510,7 @@
         <v>1.7154700000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>25600.400000000001</v>
       </c>
@@ -4248,7 +8518,7 @@
         <v>1.7664200000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>25600.400000000001</v>
       </c>
@@ -4256,7 +8526,7 @@
         <v>1.4316</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>25600.400000000001</v>
       </c>
@@ -4264,7 +8534,7 @@
         <v>1.4651700000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>25600.400000000001</v>
       </c>
@@ -4272,7 +8542,7 @@
         <v>1.42933</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>25800.400000000001</v>
       </c>
@@ -4280,7 +8550,7 @@
         <v>1.81097</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>25800.400000000001</v>
       </c>
@@ -4288,7 +8558,7 @@
         <v>1.72742</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>25800.400000000001</v>
       </c>
@@ -4296,7 +8566,7 @@
         <v>1.8074300000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>26000.5</v>
       </c>
@@ -4304,7 +8574,7 @@
         <v>1.5379100000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>26000.5</v>
       </c>
@@ -4312,7 +8582,7 @@
         <v>1.5448299999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>26000.400000000001</v>
       </c>
@@ -4320,7 +8590,7 @@
         <v>1.71627</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>26200.3</v>
       </c>
@@ -4328,7 +8598,7 @@
         <v>1.7379199999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>26200.3</v>
       </c>
@@ -4336,7 +8606,7 @@
         <v>1.47784</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>26200.3</v>
       </c>
@@ -4344,7 +8614,7 @@
         <v>1.44275</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>26200.3</v>
       </c>
@@ -4352,7 +8622,7 @@
         <v>1.7990200000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>26400.400000000001</v>
       </c>
@@ -4360,7 +8630,7 @@
         <v>1.55582</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>26400.400000000001</v>
       </c>
@@ -4368,7 +8638,7 @@
         <v>1.50274</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>26400.400000000001</v>
       </c>
@@ -4376,7 +8646,7 @@
         <v>1.5877600000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>26600.400000000001</v>
       </c>
@@ -4384,7 +8654,7 @@
         <v>1.9554100000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>26600.400000000001</v>
       </c>
@@ -4392,7 +8662,7 @@
         <v>1.56619</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>26600.400000000001</v>
       </c>
@@ -4400,7 +8670,7 @@
         <v>1.5604499999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>26800.3</v>
       </c>
@@ -4408,7 +8678,7 @@
         <v>1.7800400000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>26800.3</v>
       </c>
@@ -4416,7 +8686,7 @@
         <v>1.5194000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>26800.3</v>
       </c>
@@ -4424,7 +8694,7 @@
         <v>1.5224599999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>27000.3</v>
       </c>
@@ -4432,7 +8702,7 @@
         <v>1.6122399999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>27000.3</v>
       </c>
@@ -4440,7 +8710,7 @@
         <v>1.83823</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>27000.3</v>
       </c>
@@ -4448,7 +8718,7 @@
         <v>1.8719699999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>27000.3</v>
       </c>
@@ -4456,7 +8726,7 @@
         <v>1.6403300000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>27200.400000000001</v>
       </c>
@@ -4464,7 +8734,7 @@
         <v>1.63121</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>27200.400000000001</v>
       </c>
@@ -4472,7 +8742,7 @@
         <v>1.7964100000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>27200.400000000001</v>
       </c>
@@ -4480,7 +8750,7 @@
         <v>1.7021599999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>27400.400000000001</v>
       </c>
@@ -4488,7 +8758,7 @@
         <v>1.6293899999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>27400.400000000001</v>
       </c>
@@ -4496,7 +8766,7 @@
         <v>1.9004799999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>27400.400000000001</v>
       </c>
@@ -4504,7 +8774,7 @@
         <v>1.9534</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>27600.3</v>
       </c>
@@ -4512,7 +8782,7 @@
         <v>1.6395200000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>27600.3</v>
       </c>
@@ -4520,7 +8790,7 @@
         <v>1.6832100000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>27600.3</v>
       </c>
@@ -4528,7 +8798,7 @@
         <v>1.8073999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>27800.3</v>
       </c>
@@ -4536,7 +8806,7 @@
         <v>1.7673300000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>27800.3</v>
       </c>
@@ -4544,7 +8814,7 @@
         <v>1.93655</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>27800.3</v>
       </c>
@@ -4552,7 +8822,7 @@
         <v>1.5439000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>27800.3</v>
       </c>
@@ -4560,7 +8830,7 @@
         <v>1.8947099999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>28000.400000000001</v>
       </c>
@@ -4568,7 +8838,7 @@
         <v>1.78996</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>28000.400000000001</v>
       </c>
@@ -4576,7 +8846,7 @@
         <v>1.6133999999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>28000.400000000001</v>
       </c>
@@ -4584,7 +8854,7 @@
         <v>1.71105</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>28200.400000000001</v>
       </c>
@@ -4592,7 +8862,7 @@
         <v>1.6862600000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>28200.5</v>
       </c>
@@ -4600,7 +8870,7 @@
         <v>1.7698100000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>28200.400000000001</v>
       </c>
@@ -4608,7 +8878,7 @@
         <v>1.7121599999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>28400.3</v>
       </c>
@@ -4616,7 +8886,7 @@
         <v>1.9676199999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>28400.3</v>
       </c>
@@ -4624,7 +8894,7 @@
         <v>1.7163200000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>28400.3</v>
       </c>
@@ -4632,7 +8902,7 @@
         <v>1.94238</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>28400.3</v>
       </c>
@@ -4640,7 +8910,7 @@
         <v>2.0665900000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>28600.400000000001</v>
       </c>
@@ -4648,7 +8918,7 @@
         <v>1.9455499999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>28600.400000000001</v>
       </c>
@@ -4656,7 +8926,7 @@
         <v>1.5411600000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>28600.400000000001</v>
       </c>
@@ -4664,7 +8934,7 @@
         <v>1.99133</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>28800.400000000001</v>
       </c>
@@ -4672,7 +8942,7 @@
         <v>1.90337</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>28800.400000000001</v>
       </c>
@@ -4680,7 +8950,7 @@
         <v>1.86659</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>28800.400000000001</v>
       </c>
@@ -4688,7 +8958,7 @@
         <v>1.82836</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>29000.400000000001</v>
       </c>
@@ -4696,7 +8966,7 @@
         <v>1.97583</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>29000.400000000001</v>
       </c>
@@ -4704,7 +8974,7 @@
         <v>1.6169</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>29000.5</v>
       </c>
@@ -4712,7 +8982,7 @@
         <v>2.1396299999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>29200.3</v>
       </c>
@@ -4720,7 +8990,7 @@
         <v>1.97956</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>29200.3</v>
       </c>
@@ -4728,7 +8998,7 @@
         <v>1.8420399999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>29200.3</v>
       </c>
@@ -4736,7 +9006,7 @@
         <v>1.7742199999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>29200.3</v>
       </c>
@@ -4744,7 +9014,7 @@
         <v>1.9756400000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>29400.400000000001</v>
       </c>
@@ -4752,7 +9022,7 @@
         <v>2.0688599999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>29400.400000000001</v>
       </c>
@@ -4760,7 +9030,7 @@
         <v>1.8586100000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>29400.400000000001</v>
       </c>
@@ -4768,7 +9038,7 @@
         <v>2.01939</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>29600.400000000001</v>
       </c>
@@ -4776,7 +9046,7 @@
         <v>1.80884</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>29600.400000000001</v>
       </c>
@@ -4784,7 +9054,7 @@
         <v>1.5936399999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>29600.400000000001</v>
       </c>
@@ -4792,7 +9062,7 @@
         <v>2.0906799999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>29800.5</v>
       </c>
@@ -4800,7 +9070,7 @@
         <v>1.8922600000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>29800.5</v>
       </c>
@@ -4808,7 +9078,7 @@
         <v>1.8539000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>29800.5</v>
       </c>
@@ -4816,7 +9086,7 @@
         <v>2.1431200000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>29800.5</v>
       </c>
@@ -4824,7 +9094,7 @@
         <v>1.8003</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>30000.3</v>
       </c>
@@ -4832,7 +9102,7 @@
         <v>1.71905</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>30000.3</v>
       </c>
@@ -4840,7 +9110,7 @@
         <v>1.71235</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>30000.3</v>
       </c>
@@ -4848,7 +9118,7 @@
         <v>2.1305999999999998</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>30200.400000000001</v>
       </c>
@@ -4856,7 +9126,7 @@
         <v>2.0638999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>30200.400000000001</v>
       </c>
@@ -4864,7 +9134,7 @@
         <v>2.0881599999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>30200.400000000001</v>
       </c>
@@ -4872,7 +9142,7 @@
         <v>2.14777</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>30400.400000000001</v>
       </c>
@@ -4880,7 +9150,7 @@
         <v>1.9743599999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>30400.400000000001</v>
       </c>
@@ -4888,7 +9158,7 @@
         <v>1.98011</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>30400.400000000001</v>
       </c>
@@ -4896,7 +9166,7 @@
         <v>2.1109300000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>30600.5</v>
       </c>
@@ -4904,7 +9174,7 @@
         <v>2.0254500000000002</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>30600.5</v>
       </c>
@@ -4912,7 +9182,7 @@
         <v>1.7540199999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>30600.5</v>
       </c>
@@ -4920,7 +9190,7 @@
         <v>1.8887700000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>30600.5</v>
       </c>
@@ -4928,7 +9198,7 @@
         <v>2.2021700000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>30800.3</v>
       </c>
@@ -4936,7 +9206,7 @@
         <v>1.92967</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>30800.3</v>
       </c>
@@ -4944,7 +9214,7 @@
         <v>1.7637799999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>30800.3</v>
       </c>
@@ -4952,7 +9222,7 @@
         <v>1.71458</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>31000.400000000001</v>
       </c>
@@ -4960,7 +9230,7 @@
         <v>1.9417</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>31000.400000000001</v>
       </c>
@@ -4968,7 +9238,7 @@
         <v>2.0201099999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>31000.400000000001</v>
       </c>
@@ -4976,7 +9246,7 @@
         <v>1.94994</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>31200.400000000001</v>
       </c>
@@ -4984,7 +9254,7 @@
         <v>2.2778700000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>31200.400000000001</v>
       </c>
@@ -4992,7 +9262,7 @@
         <v>2.2295500000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>31200.400000000001</v>
       </c>
@@ -5000,7 +9270,7 @@
         <v>1.9293100000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>31200.400000000001</v>
       </c>
@@ -5008,7 +9278,7 @@
         <v>2.0316299999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>31400.5</v>
       </c>
@@ -5016,7 +9286,7 @@
         <v>2.0712999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>31400.5</v>
       </c>
@@ -5024,7 +9294,7 @@
         <v>1.9583200000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>31400.5</v>
       </c>
@@ -5032,7 +9302,7 @@
         <v>1.7708600000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>31600.400000000001</v>
       </c>
@@ -5040,7 +9310,7 @@
         <v>1.9337200000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>31600.400000000001</v>
       </c>
@@ -5048,7 +9318,7 @@
         <v>1.8759300000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>31600.400000000001</v>
       </c>
@@ -5056,7 +9326,7 @@
         <v>2.2699600000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>31800.400000000001</v>
       </c>
@@ -5064,7 +9334,7 @@
         <v>1.8037399999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>31800.400000000001</v>
       </c>
@@ -5072,7 +9342,7 @@
         <v>1.96475</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>31800.400000000001</v>
       </c>
@@ -5080,7 +9350,7 @@
         <v>1.9008499999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>32000.400000000001</v>
       </c>
@@ -5088,7 +9358,7 @@
         <v>2.2167400000000002</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>32000.400000000001</v>
       </c>
@@ -5096,7 +9366,7 @@
         <v>1.8493900000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>32000.400000000001</v>
       </c>
@@ -5104,7 +9374,7 @@
         <v>2.29555</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>32000.400000000001</v>
       </c>
@@ -5112,7 +9382,7 @@
         <v>1.9859500000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>32200.5</v>
       </c>
@@ -5120,7 +9390,7 @@
         <v>1.8271299999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>32200.5</v>
       </c>
@@ -5128,7 +9398,7 @@
         <v>2.1782300000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>32200.5</v>
       </c>
@@ -5136,7 +9406,7 @@
         <v>2.3000699999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>32400.400000000001</v>
       </c>
@@ -5144,7 +9414,7 @@
         <v>2.2526299999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>32400.400000000001</v>
       </c>
@@ -5152,7 +9422,7 @@
         <v>2.3097500000000002</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>32400.400000000001</v>
       </c>
@@ -5160,7 +9430,7 @@
         <v>2.3597399999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>32600.400000000001</v>
       </c>
@@ -5168,7 +9438,7 @@
         <v>1.9660500000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>32600.400000000001</v>
       </c>
@@ -5176,7 +9446,7 @@
         <v>2.3459699999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>32600.400000000001</v>
       </c>
@@ -5184,7 +9454,7 @@
         <v>2.2473000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>32600.400000000001</v>
       </c>
@@ -5192,7 +9462,7 @@
         <v>1.9040600000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>32800.5</v>
       </c>
@@ -5200,7 +9470,7 @@
         <v>2.00258</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>32800.5</v>
       </c>
@@ -5208,7 +9478,7 @@
         <v>1.9286300000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>32800.5</v>
       </c>
@@ -5216,7 +9486,7 @@
         <v>2.08081</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>33000.300000000003</v>
       </c>
@@ -5224,7 +9494,7 @@
         <v>2.2654999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>33000.300000000003</v>
       </c>
@@ -5232,7 +9502,7 @@
         <v>2.3889200000000002</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>33000.300000000003</v>
       </c>
@@ -5240,7 +9510,7 @@
         <v>1.81907</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>33200.400000000001</v>
       </c>
@@ -5248,7 +9518,7 @@
         <v>2.05911</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>33200.400000000001</v>
       </c>
@@ -5256,7 +9526,7 @@
         <v>2.14093</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>33200.400000000001</v>
       </c>
@@ -5264,7 +9534,7 @@
         <v>2.2656999999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>33400.400000000001</v>
       </c>
@@ -5272,7 +9542,7 @@
         <v>1.8603400000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>33400.400000000001</v>
       </c>
@@ -5280,7 +9550,7 @@
         <v>1.8933199999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>33400.400000000001</v>
       </c>
@@ -5288,7 +9558,7 @@
         <v>1.82927</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>33400.400000000001</v>
       </c>
@@ -5296,7 +9566,7 @@
         <v>2.0591400000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>33600.5</v>
       </c>
@@ -5304,7 +9574,7 @@
         <v>2.0839699999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>33600.5</v>
       </c>
@@ -5312,7 +9582,7 @@
         <v>2.2602099999999998</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>33600.5</v>
       </c>
@@ -5320,7 +9590,7 @@
         <v>2.29312</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>33800.300000000003</v>
       </c>
@@ -5328,7 +9598,7 @@
         <v>1.91638</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>33800.300000000003</v>
       </c>
@@ -5336,7 +9606,7 @@
         <v>2.0715400000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>33800.300000000003</v>
       </c>
@@ -5344,7 +9614,7 @@
         <v>2.43838</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>34000.400000000001</v>
       </c>
@@ -5352,7 +9622,7 @@
         <v>2.4668000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>34000.400000000001</v>
       </c>
@@ -5360,7 +9630,7 @@
         <v>2.2904900000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>34000.400000000001</v>
       </c>
@@ -5368,7 +9638,7 @@
         <v>2.3074400000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>34200.400000000001</v>
       </c>
@@ -5376,7 +9646,7 @@
         <v>2.3948299999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>34200.400000000001</v>
       </c>
@@ -5384,7 +9654,7 @@
         <v>1.9417899999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>34200.400000000001</v>
       </c>
@@ -5392,7 +9662,7 @@
         <v>2.3201299999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>34200.400000000001</v>
       </c>
@@ -5400,7 +9670,7 @@
         <v>2.07342</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>34400.5</v>
       </c>
@@ -5408,7 +9678,7 @@
         <v>1.91743</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>34400.5</v>
       </c>
@@ -5416,7 +9686,7 @@
         <v>2.1005699999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>34400.5</v>
       </c>
@@ -5424,7 +9694,7 @@
         <v>2.2961999999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>34600.300000000003</v>
       </c>
@@ -5432,7 +9702,7 @@
         <v>2.0437099999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>34600.300000000003</v>
       </c>
@@ -5440,7 +9710,7 @@
         <v>2.1026799999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>34600.300000000003</v>
       </c>
@@ -5448,7 +9718,7 @@
         <v>2.26105</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>34800.400000000001</v>
       </c>
@@ -5456,7 +9726,7 @@
         <v>2.2332800000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>34800.400000000001</v>
       </c>
@@ -5464,7 +9734,7 @@
         <v>1.98783</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>34800.400000000001</v>
       </c>
@@ -5472,7 +9742,7 @@
         <v>2.0057299999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>34800.400000000001</v>
       </c>
@@ -5482,5 +9752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>